--- a/Secondo progetto/ese2_data.xlsx
+++ b/Secondo progetto/ese2_data.xlsx
@@ -3,24 +3,33 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C6DA6C-74F6-413D-A803-B7A0CC625845}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A6A021-4470-4375-966A-A43E83BEDAFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="precess_time">Foglio1!$B$12:$K$13</definedName>
+    <definedName name="process_time">Foglio1!$B$12:$K$13</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Job</t>
   </si>
@@ -122,12 +131,21 @@
       <t>4</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">Process Time </t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +164,14 @@
     <font>
       <i/>
       <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -225,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -239,6 +265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -519,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,6 +729,104 @@
         <v>13</v>
       </c>
     </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <f>SUM(B2:B4)</f>
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:K12" si="0">SUM(C2:C4)</f>
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <f>SUM(B5)</f>
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:K13" si="1">SUM(C5)</f>
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K15" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Secondo progetto/ese2_data.xlsx
+++ b/Secondo progetto/ese2_data.xlsx
@@ -1,18 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A6A021-4470-4375-966A-A43E83BEDAFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2580E56-1F34-442A-A274-B4B7CE09F202}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="anto">Foglio1!$B$2:$F$5</definedName>
+    <definedName name="ossessing">Foglio1!$B$3:$F$4</definedName>
     <definedName name="precess_time">Foglio1!$B$12:$K$13</definedName>
     <definedName name="process_time">Foglio1!$B$12:$K$13</definedName>
+    <definedName name="processing_time">Foglio1!$B$12:$F$13</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Foglio2!$G$4:$G$21</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Foglio2!$G$4:$G$21</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Foglio2!$M$4:$M$9</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">Foglio2!$M$7:$M$9</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">Foglio2!$N$7:$N$9</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">4</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Foglio2!#REF!</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">5</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">binario</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">Foglio2!$O$4:$O$9</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">Foglio2!#REF!</definedName>
+    <definedName name="solver_rhs4" localSheetId="1" hidden="1">Foglio2!$M$4:$M$6</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -22,6 +46,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Job</t>
   </si>
@@ -139,6 +164,45 @@
   </si>
   <si>
     <t>MB</t>
+  </si>
+  <si>
+    <t>macchina</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>job i</t>
+  </si>
+  <si>
+    <t>job j</t>
+  </si>
+  <si>
+    <t>x(k,i,j)</t>
+  </si>
+  <si>
+    <t>processing_time</t>
+  </si>
+  <si>
+    <t>completion_time</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>Cmax</t>
+  </si>
+  <si>
+    <t>min_completion_time</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Big-M1</t>
+  </si>
+  <si>
+    <t>Big-M2</t>
   </si>
 </sst>
 </file>
@@ -251,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -266,6 +330,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -548,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,4 +895,447 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9467A701-7125-457C-866F-264A1E7CF6F0}">
+  <dimension ref="A3:O21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>18</v>
+      </c>
+      <c r="O4">
+        <f>N4+L4</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f>M5-B4*(1-G5)</f>
+        <v>-1000</v>
+      </c>
+      <c r="I5">
+        <f>M4-B4*G5</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>29</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O9" si="0">N5+L5</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f>M6-B4*(1-G6)</f>
+        <v>-1000</v>
+      </c>
+      <c r="I6">
+        <f>M4-B4*G6</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>9</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <f>M4-B4*(1-G7)</f>
+        <v>-1000</v>
+      </c>
+      <c r="I7">
+        <f>M5-B4*G7</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>13</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>10</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <f>M6-B4*(1-G9)</f>
+        <v>-1000</v>
+      </c>
+      <c r="I9">
+        <f>M5-B4*G9</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9" s="6">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <f>M4-B4*(1-G10)</f>
+        <v>-1000</v>
+      </c>
+      <c r="I10">
+        <f>M6-B4*G10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <f>M5-B4*(1-G11)</f>
+        <v>-1000</v>
+      </c>
+      <c r="I11">
+        <f>M6-B4*G11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f>M8-B4*(1-G14)</f>
+        <v>-1000</v>
+      </c>
+      <c r="I14">
+        <f>M7-B4*G14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <f>M9-B4*(1-G15)</f>
+        <v>-1000</v>
+      </c>
+      <c r="I15">
+        <f>M7-B4*G15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <f>M7-B4*(1-G16)</f>
+        <v>-1000</v>
+      </c>
+      <c r="I16">
+        <f>M8-B4*G16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <f>M9-B4*(1-G18)</f>
+        <v>-1000</v>
+      </c>
+      <c r="I18">
+        <f>M8-B4*G18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <f>M7-B4*(1-G19)</f>
+        <v>-1000</v>
+      </c>
+      <c r="I19">
+        <f>M9-B4*G19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <f>M8-B4*(1-G20)</f>
+        <v>-1000</v>
+      </c>
+      <c r="I20">
+        <f>M9-B4*G20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Secondo progetto/ese2_data.xlsx
+++ b/Secondo progetto/ese2_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2580E56-1F34-442A-A274-B4B7CE09F202}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DF01DC-26BC-4AB5-A524-3CE9339B0CB8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,22 +18,116 @@
     <definedName name="process_time">Foglio1!$B$12:$K$13</definedName>
     <definedName name="processing_time">Foglio1!$B$12:$F$13</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">Foglio2!$G$4:$G$21</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs0" localSheetId="1" hidden="1">Foglio2!$N$9</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">Foglio2!$G$4:$G$21</definedName>
+    <definedName name="solver_lhs10" localSheetId="1" hidden="1">Foglio2!$N$5</definedName>
+    <definedName name="solver_lhs11" localSheetId="1" hidden="1">Foglio2!$N$5</definedName>
+    <definedName name="solver_lhs12" localSheetId="1" hidden="1">Foglio2!$N$6</definedName>
+    <definedName name="solver_lhs13" localSheetId="1" hidden="1">Foglio2!$N$6</definedName>
+    <definedName name="solver_lhs14" localSheetId="1" hidden="1">Foglio2!$N$6</definedName>
+    <definedName name="solver_lhs15" localSheetId="1" hidden="1">Foglio2!$N$6</definedName>
+    <definedName name="solver_lhs16" localSheetId="1" hidden="1">Foglio2!$N$7</definedName>
+    <definedName name="solver_lhs17" localSheetId="1" hidden="1">Foglio2!$N$7</definedName>
+    <definedName name="solver_lhs18" localSheetId="1" hidden="1">Foglio2!$N$7</definedName>
+    <definedName name="solver_lhs19" localSheetId="1" hidden="1">Foglio2!$N$7</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">Foglio2!$M$4:$M$9</definedName>
+    <definedName name="solver_lhs20" localSheetId="1" hidden="1">Foglio2!$N$7:$N$9</definedName>
+    <definedName name="solver_lhs21" localSheetId="1" hidden="1">Foglio2!$N$8</definedName>
+    <definedName name="solver_lhs22" localSheetId="1" hidden="1">Foglio2!$N$8</definedName>
+    <definedName name="solver_lhs23" localSheetId="1" hidden="1">Foglio2!$N$8</definedName>
+    <definedName name="solver_lhs24" localSheetId="1" hidden="1">Foglio2!$N$8</definedName>
+    <definedName name="solver_lhs25" localSheetId="1" hidden="1">Foglio2!$N$9</definedName>
+    <definedName name="solver_lhs26" localSheetId="1" hidden="1">Foglio2!$N$9</definedName>
+    <definedName name="solver_lhs27" localSheetId="1" hidden="1">Foglio2!$N$9</definedName>
+    <definedName name="solver_lhs28" localSheetId="1" hidden="1">Foglio2!$N$9</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">Foglio2!$M$7:$M$9</definedName>
-    <definedName name="solver_lhs4" localSheetId="1" hidden="1">Foglio2!$N$7:$N$9</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">Foglio2!$N$4</definedName>
+    <definedName name="solver_lhs5" localSheetId="1" hidden="1">Foglio2!$N$4</definedName>
+    <definedName name="solver_lhs6" localSheetId="1" hidden="1">Foglio2!$N$4</definedName>
+    <definedName name="solver_lhs7" localSheetId="1" hidden="1">Foglio2!$N$4</definedName>
+    <definedName name="solver_lhs8" localSheetId="1" hidden="1">Foglio2!$N$5</definedName>
+    <definedName name="solver_lhs9" localSheetId="1" hidden="1">Foglio2!$N$5</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">4</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">Foglio2!#REF!</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">28</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Foglio2!$B$3</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel0" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">5</definedName>
+    <definedName name="solver_rel10" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel11" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel12" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel13" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel14" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel15" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel16" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel17" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel18" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel19" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel20" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel21" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel22" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel23" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel24" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel25" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel26" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel27" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel28" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel6" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel7" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel8" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel9" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rhs0" localSheetId="1" hidden="1">Foglio2!$I$18</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">binario</definedName>
+    <definedName name="solver_rhs10" localSheetId="1" hidden="1">Foglio2!$I$11</definedName>
+    <definedName name="solver_rhs11" localSheetId="1" hidden="1">Foglio2!$I$5</definedName>
+    <definedName name="solver_rhs12" localSheetId="1" hidden="1">Foglio2!$H$10</definedName>
+    <definedName name="solver_rhs13" localSheetId="1" hidden="1">Foglio2!$H$11</definedName>
+    <definedName name="solver_rhs14" localSheetId="1" hidden="1">Foglio2!$I$6</definedName>
+    <definedName name="solver_rhs15" localSheetId="1" hidden="1">Foglio2!$I$9</definedName>
+    <definedName name="solver_rhs16" localSheetId="1" hidden="1">Foglio2!$H$14</definedName>
+    <definedName name="solver_rhs17" localSheetId="1" hidden="1">Foglio2!$H$15</definedName>
+    <definedName name="solver_rhs18" localSheetId="1" hidden="1">Foglio2!$I$16</definedName>
+    <definedName name="solver_rhs19" localSheetId="1" hidden="1">Foglio2!$I$19</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">Foglio2!$O$4:$O$9</definedName>
-    <definedName name="solver_rhs3" localSheetId="1" hidden="1">Foglio2!#REF!</definedName>
-    <definedName name="solver_rhs4" localSheetId="1" hidden="1">Foglio2!$M$4:$M$6</definedName>
+    <definedName name="solver_rhs20" localSheetId="1" hidden="1">Foglio2!$M$4:$M$6</definedName>
+    <definedName name="solver_rhs21" localSheetId="1" hidden="1">Foglio2!$H$16</definedName>
+    <definedName name="solver_rhs22" localSheetId="1" hidden="1">Foglio2!$H$18</definedName>
+    <definedName name="solver_rhs23" localSheetId="1" hidden="1">Foglio2!$I$14</definedName>
+    <definedName name="solver_rhs24" localSheetId="1" hidden="1">Foglio2!$I$20</definedName>
+    <definedName name="solver_rhs25" localSheetId="1" hidden="1">Foglio2!$H$19</definedName>
+    <definedName name="solver_rhs26" localSheetId="1" hidden="1">Foglio2!$H$20</definedName>
+    <definedName name="solver_rhs27" localSheetId="1" hidden="1">Foglio2!$I$15</definedName>
+    <definedName name="solver_rhs28" localSheetId="1" hidden="1">Foglio2!$I$18</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">Foglio2!$B$3</definedName>
+    <definedName name="solver_rhs4" localSheetId="1" hidden="1">Foglio2!$H$5</definedName>
+    <definedName name="solver_rhs5" localSheetId="1" hidden="1">Foglio2!$H$6</definedName>
+    <definedName name="solver_rhs6" localSheetId="1" hidden="1">Foglio2!$I$10</definedName>
+    <definedName name="solver_rhs7" localSheetId="1" hidden="1">Foglio2!$I$7</definedName>
+    <definedName name="solver_rhs8" localSheetId="1" hidden="1">Foglio2!$H$7</definedName>
+    <definedName name="solver_rhs9" localSheetId="1" hidden="1">Foglio2!$H$9</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
@@ -902,7 +996,7 @@
   <dimension ref="A3:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,6 +1014,10 @@
       <c r="A3" t="s">
         <v>26</v>
       </c>
+      <c r="B3">
+        <f>SUM(M4:M9)</f>
+        <v>0</v>
+      </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
@@ -973,6 +1071,9 @@
       <c r="F4">
         <v>1</v>
       </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
       <c r="J4">
         <v>1</v>
       </c>
@@ -981,6 +1082,12 @@
       </c>
       <c r="L4">
         <v>18</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
       </c>
       <c r="O4">
         <f>N4+L4</f>
@@ -997,6 +1104,9 @@
       <c r="F5">
         <v>1</v>
       </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
       <c r="H5">
         <f>M5-B4*(1-G5)</f>
         <v>-1000</v>
@@ -1014,6 +1124,12 @@
       <c r="L5">
         <v>29</v>
       </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
       <c r="O5">
         <f t="shared" ref="O5:O9" si="0">N5+L5</f>
         <v>29</v>
@@ -1029,6 +1145,9 @@
       <c r="F6">
         <v>1</v>
       </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
       <c r="H6">
         <f>M6-B4*(1-G6)</f>
         <v>-1000</v>
@@ -1046,6 +1165,12 @@
       <c r="L6">
         <v>9</v>
       </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
       <c r="O6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1061,6 +1186,9 @@
       <c r="F7">
         <v>2</v>
       </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
       <c r="H7">
         <f>M4-B4*(1-G7)</f>
         <v>-1000</v>
@@ -1078,6 +1206,12 @@
       <c r="L7">
         <v>13</v>
       </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
       <c r="O7">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1093,6 +1227,9 @@
       <c r="F8">
         <v>2</v>
       </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
       <c r="J8">
         <v>2</v>
       </c>
@@ -1101,6 +1238,12 @@
       </c>
       <c r="L8">
         <v>10</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
@@ -1117,6 +1260,9 @@
       <c r="F9">
         <v>2</v>
       </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
       <c r="H9">
         <f>M6-B4*(1-G9)</f>
         <v>-1000</v>
@@ -1134,6 +1280,12 @@
       <c r="L9" s="6">
         <v>1</v>
       </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
       <c r="O9">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1148,6 +1300,9 @@
       </c>
       <c r="F10">
         <v>3</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
       </c>
       <c r="H10">
         <f>M4-B4*(1-G10)</f>
@@ -1168,6 +1323,9 @@
       <c r="F11">
         <v>3</v>
       </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
       <c r="H11">
         <f>M5-B4*(1-G11)</f>
         <v>-1000</v>
@@ -1187,6 +1345,9 @@
       <c r="F12">
         <v>3</v>
       </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D13">
@@ -1198,6 +1359,9 @@
       <c r="F13">
         <v>1</v>
       </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D14">
@@ -1208,6 +1372,9 @@
       </c>
       <c r="F14">
         <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
       </c>
       <c r="H14">
         <f>M8-B4*(1-G14)</f>
@@ -1228,6 +1395,9 @@
       <c r="F15">
         <v>1</v>
       </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
       <c r="H15">
         <f>M9-B4*(1-G15)</f>
         <v>-1000</v>
@@ -1247,6 +1417,9 @@
       <c r="F16">
         <v>2</v>
       </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
       <c r="H16">
         <f>M7-B4*(1-G16)</f>
         <v>-1000</v>
@@ -1266,6 +1439,9 @@
       <c r="F17">
         <v>2</v>
       </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D18">
@@ -1276,6 +1452,9 @@
       </c>
       <c r="F18">
         <v>2</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
       </c>
       <c r="H18">
         <f>M9-B4*(1-G18)</f>
@@ -1296,6 +1475,9 @@
       <c r="F19">
         <v>3</v>
       </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
       <c r="H19">
         <f>M7-B4*(1-G19)</f>
         <v>-1000</v>
@@ -1315,6 +1497,9 @@
       <c r="F20">
         <v>3</v>
       </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
       <c r="H20">
         <f>M8-B4*(1-G20)</f>
         <v>-1000</v>
@@ -1333,6 +1518,9 @@
       </c>
       <c r="F21">
         <v>3</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Secondo progetto/ese2_data.xlsx
+++ b/Secondo progetto/ese2_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DF01DC-26BC-4AB5-A524-3CE9339B0CB8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E86EEAE-6E5F-41BA-8190-DC41CDF2802A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <definedName name="precess_time">Foglio1!$B$12:$K$13</definedName>
     <definedName name="process_time">Foglio1!$B$12:$K$13</definedName>
     <definedName name="processing_time">Foglio1!$B$12:$F$13</definedName>
+    <definedName name="processing_time_4">Foglio1!$B$2:$K$5</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">Foglio2!$G$4:$G$21</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
@@ -707,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,7 +996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9467A701-7125-457C-866F-264A1E7CF6F0}">
   <dimension ref="A3:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
